--- a/Vinasa/Content/Files/MauHoiNghi.xlsx
+++ b/Vinasa/Content/Files/MauHoiNghi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HK3_NH21-22\SEP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HK3_NH21-22\SEP\fixcode\Vinasa\Vinasa\Content\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3A4F61-165F-498D-A6CE-C1F23E237E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E1B134-EA29-475D-AEDC-EB96E18B7416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,16 +57,20 @@
     <t xml:space="preserve">Lĩnh vực hoạt động </t>
   </si>
   <si>
-    <t xml:space="preserve">Đăng ký hội thảo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đăng ký Business Matching </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đăng ký gian hàng triển lãm </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đăng ký vé tham dự </t>
+    <t>Đăng ký hội thảo
+(có hoặc không)</t>
+  </si>
+  <si>
+    <t>Đăng ký Business Matching
+(có hoặc không)</t>
+  </si>
+  <si>
+    <t>Đăng ký gian hàng triển lãm
+(có hoặc không)</t>
+  </si>
+  <si>
+    <t>Đăng ký vé tham dự
+(có hoặc không)</t>
   </si>
 </sst>
 </file>
@@ -444,7 +448,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -462,7 +466,8 @@
     <col min="11" max="11" width="18.33203125" style="2" customWidth="1"/>
     <col min="12" max="12" width="21.6640625" style="2" customWidth="1"/>
     <col min="13" max="13" width="18.33203125" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="12.44140625" style="2"/>
+    <col min="14" max="14" width="15.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="12.44140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">

--- a/Vinasa/Content/Files/MauHoiNghi.xlsx
+++ b/Vinasa/Content/Files/MauHoiNghi.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HK3_NH21-22\SEP\fixcode\Vinasa\Vinasa\Content\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HK3_NH21-22\SEP\Vinasa\Vinasa\Content\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E1B134-EA29-475D-AEDC-EB96E18B7416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809CF17F-145A-4981-B3B7-0F7027295273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,19 +58,19 @@
   </si>
   <si>
     <t>Đăng ký hội thảo
-(có hoặc không)</t>
+(1-có hoặc 0-không)</t>
   </si>
   <si>
     <t>Đăng ký Business Matching
-(có hoặc không)</t>
+(1-có hoặc 0-không)</t>
   </si>
   <si>
     <t>Đăng ký gian hàng triển lãm
-(có hoặc không)</t>
+(1-có hoặc 0-không)</t>
   </si>
   <si>
     <t>Đăng ký vé tham dự
-(có hoặc không)</t>
+(1-có hoặc 0-không)</t>
   </si>
 </sst>
 </file>
@@ -448,7 +448,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
